--- a/xlsx/權威控制_intext.xlsx
+++ b/xlsx/權威控制_intext.xlsx
@@ -29,7 +29,7 @@
     <t>en-Authority control</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_權威控制</t>
+    <t>体育运动_体育运动_体育_權威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BE%E4%B9%A6%E9%A6%86%E4%BF%A1%E6%81%AF%E5%AD%A6</t>
